--- a/ExcelAssignment.xlsx
+++ b/ExcelAssignment.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Brokerage Commission:</t>
   </si>
@@ -96,15 +96,19 @@
       <t>Ryan Luig</t>
     </r>
   </si>
+  <si>
+    <t>Purchase Price</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -123,16 +127,41 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -140,27 +169,98 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -183,21 +283,11 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -209,6 +299,1639 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Stock Gain/Loss</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17456714785651795"/>
+          <c:y val="0.15042833187518226"/>
+          <c:w val="0.81432174103237098"/>
+          <c:h val="0.54380322251385238"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ABCcorp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$6</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1395.38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-093F-47A8-B48C-2B1FBB15296E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fintel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>7590</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-093F-47A8-B48C-2B1FBB15296E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MacDonald's</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$8</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-093F-47A8-B48C-2B1FBB15296E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MidWest Tie</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4353</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-093F-47A8-B48C-2B1FBB15296E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mocha Cola</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent5">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>15798.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-093F-47A8-B48C-2B1FBB15296E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Mouse World</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent6">
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>27386.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-093F-47A8-B48C-2B1FBB15296E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Micsoft</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>4456.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-093F-47A8-B48C-2B1FBB15296E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ProYard</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>16910.400000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-093F-47A8-B48C-2B1FBB15296E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$14</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tritel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$14</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>299.13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-093F-47A8-B48C-2B1FBB15296E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BMI</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="103000"/>
+                    <a:lumMod val="102000"/>
+                    <a:tint val="94000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:satMod val="110000"/>
+                    <a:lumMod val="100000"/>
+                    <a:shade val="100000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="99000"/>
+                    <a:satMod val="120000"/>
+                    <a:shade val="78000"/>
+                  </a:schemeClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="0"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1328</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-093F-47A8-B48C-2B1FBB15296E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="390351864"/>
+        <c:axId val="390352192"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="390351864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390352192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="390352192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390351864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="347">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1190625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -474,309 +2197,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.42578125" customWidth="1"/>
-    <col min="2" max="7" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" style="6" customWidth="1"/>
+    <col min="4" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
+      <c r="C1" s="5"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="5"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="C3" s="1"/>
+      <c r="C3" s="5"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="5"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:7" ht="39" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="H5" s="9" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>40242</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="17">
+        <v>22</v>
+      </c>
+      <c r="D6" s="4">
         <v>34</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="13">
         <v>7</v>
       </c>
-      <c r="E6" s="5">
-        <f>PRODUCT(C6,D6)</f>
+      <c r="F6" s="4">
+        <f t="shared" ref="F6:F15" si="0">PRODUCT(D6,E6)</f>
         <v>238</v>
       </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="15">
+        <f>F6*$B$3</f>
+        <v>16.66</v>
+      </c>
+      <c r="H6" s="4">
+        <f>(F6-(G6+C6) )*E6</f>
+        <v>1395.38</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>40514</v>
       </c>
-      <c r="C7" s="5">
+      <c r="C7" s="17">
+        <v>78</v>
+      </c>
+      <c r="D7" s="4">
         <v>90</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="13">
         <v>10</v>
       </c>
-      <c r="E7" s="5">
-        <f>PRODUCT(C7,D7)</f>
+      <c r="F7" s="4">
+        <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="G7" s="15">
+        <f t="shared" ref="G7:G15" si="1">F7*$B$3</f>
+        <v>63.000000000000007</v>
+      </c>
+      <c r="H7" s="4">
+        <f t="shared" ref="H7:H15" si="2">(F7-(G7+C7) )*E7</f>
+        <v>7590</v>
+      </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>40524</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="17">
+        <v>85</v>
+      </c>
+      <c r="D8" s="4">
         <v>80</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="13">
         <v>15</v>
       </c>
-      <c r="E8" s="5">
-        <f>PRODUCT(C8,D8)</f>
+      <c r="F8" s="4">
+        <f t="shared" si="0"/>
         <v>1200</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="15">
+        <f t="shared" si="1"/>
+        <v>84.000000000000014</v>
+      </c>
+      <c r="H8" s="4">
+        <f t="shared" si="2"/>
+        <v>15465</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>40548</v>
       </c>
-      <c r="C9" s="5">
+      <c r="C9" s="17">
+        <v>39</v>
+      </c>
+      <c r="D9" s="4">
         <v>51</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="13">
         <v>10</v>
       </c>
-      <c r="E9" s="5">
-        <f>PRODUCT(C9,D9)</f>
+      <c r="F9" s="4">
+        <f t="shared" si="0"/>
         <v>510</v>
       </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="15">
+        <f t="shared" si="1"/>
+        <v>35.700000000000003</v>
+      </c>
+      <c r="H9" s="4">
+        <f t="shared" si="2"/>
+        <v>4353</v>
+      </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>40589</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="17">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4">
         <v>55</v>
       </c>
-      <c r="D10" s="1">
+      <c r="E10" s="13">
         <v>18</v>
       </c>
-      <c r="E10" s="5">
-        <f>PRODUCT(C10,D10)</f>
+      <c r="F10" s="4">
+        <f t="shared" si="0"/>
         <v>990</v>
       </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="15">
+        <f t="shared" si="1"/>
+        <v>69.300000000000011</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="2"/>
+        <v>15798.6</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>40607</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="17">
+        <v>31.25</v>
+      </c>
+      <c r="D11" s="4">
         <v>75.3</v>
       </c>
-      <c r="D11" s="1">
+      <c r="E11" s="13">
         <v>20</v>
       </c>
-      <c r="E11" s="5">
-        <f>PRODUCT(C11,D11)</f>
+      <c r="F11" s="4">
+        <f t="shared" si="0"/>
         <v>1506</v>
       </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="15">
+        <f t="shared" si="1"/>
+        <v>105.42000000000002</v>
+      </c>
+      <c r="H11" s="4">
+        <f t="shared" si="2"/>
+        <v>27386.6</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>40634</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="17">
+        <v>40.25</v>
+      </c>
+      <c r="D12" s="4">
         <v>52.25</v>
       </c>
-      <c r="D12" s="1">
+      <c r="E12" s="13">
         <v>10</v>
       </c>
-      <c r="E12" s="5">
-        <f>PRODUCT(C12,D12)</f>
+      <c r="F12" s="4">
+        <f t="shared" si="0"/>
         <v>522.5</v>
       </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="G12" s="15">
+        <f t="shared" si="1"/>
+        <v>36.575000000000003</v>
+      </c>
+      <c r="H12" s="4">
+        <f t="shared" si="2"/>
+        <v>4456.75</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>40644</v>
       </c>
-      <c r="C13" s="5">
+      <c r="C13" s="17">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="D13" s="4">
         <v>47.45</v>
       </c>
-      <c r="D13" s="1">
+      <c r="E13" s="13">
         <v>20</v>
       </c>
-      <c r="E13" s="5">
-        <f>PRODUCT(C13,D13)</f>
+      <c r="F13" s="4">
+        <f t="shared" si="0"/>
         <v>949</v>
       </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
+      <c r="G13" s="15">
+        <f t="shared" si="1"/>
+        <v>66.430000000000007</v>
+      </c>
+      <c r="H13" s="4">
+        <f t="shared" si="2"/>
+        <v>16910.400000000001</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>40694</v>
       </c>
-      <c r="C14" s="5">
+      <c r="C14" s="17">
+        <v>37</v>
+      </c>
+      <c r="D14" s="4">
         <v>49</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E14" s="13">
         <v>3</v>
       </c>
-      <c r="E14" s="5">
-        <f>PRODUCT(C14,D14)</f>
+      <c r="F14" s="4">
+        <f t="shared" si="0"/>
         <v>147</v>
       </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
+      <c r="G14" s="15">
+        <f t="shared" si="1"/>
+        <v>10.290000000000001</v>
+      </c>
+      <c r="H14" s="4">
+        <f t="shared" si="2"/>
+        <v>299.13</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="7">
         <v>40714</v>
       </c>
-      <c r="C15" s="5">
+      <c r="C15" s="18">
+        <v>8</v>
+      </c>
+      <c r="D15" s="8">
         <v>4</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E15" s="14">
         <v>20</v>
       </c>
-      <c r="E15" s="5">
-        <f>PRODUCT(C15,D15)</f>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
+      <c r="G15" s="16">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000005</v>
+      </c>
+      <c r="H15" s="8">
+        <f t="shared" si="2"/>
+        <v>1328</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="19">
+        <f>SUM(C6:C15)</f>
+        <v>420.55</v>
+      </c>
+      <c r="D16" s="19">
+        <f t="shared" ref="D16:H16" si="3">SUM(D6:D15)</f>
+        <v>538</v>
+      </c>
+      <c r="E16" s="19">
+        <f t="shared" si="3"/>
+        <v>133</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="3"/>
+        <v>7042.5</v>
+      </c>
+      <c r="G16" s="19">
+        <f t="shared" si="3"/>
+        <v>492.97500000000008</v>
+      </c>
+      <c r="H16" s="19">
+        <f t="shared" si="3"/>
+        <v>94982.860000000015</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G6:G15">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="lessThan">
+  <conditionalFormatting sqref="H6:H15">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H6:H16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>